--- a/trunk/Horario Disponibilidad/horario ded todos.xlsx
+++ b/trunk/Horario Disponibilidad/horario ded todos.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
   <si>
     <t>LUNES</t>
   </si>
@@ -276,19 +276,10 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
@@ -304,6 +295,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="1" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -610,7 +610,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:D12"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -619,274 +619,258 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8" t="s">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="7" t="s">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7" t="s">
+      <c r="F9" s="4"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="6" t="s">
+      <c r="C13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7" t="s">
+      <c r="C14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7" t="s">
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
